--- a/Excel/NPC.xlsx
+++ b/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="npc_config" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -500,6 +500,11 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/NPC.xlsx
+++ b/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="npc_config" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>john</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,6 +50,18 @@
   </si>
   <si>
     <t>gb23r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int/id/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string/name/名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string/describe/描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +80,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -103,13 +121,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,23 +465,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -463,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -474,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -485,10 +511,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -496,20 +522,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
